--- a/HW1/HW1 Scores.xlsx
+++ b/HW1/HW1 Scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OMSCS\ML\HW1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BF36B8-B415-4984-B0C0-4810EC757B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EA9FF6-3911-4DB0-BECA-7B31DED32886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4AAFA255-F642-492A-A086-DA2376025F7F}"/>
   </bookViews>
@@ -190,24 +190,24 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4167F247-6CAD-4AAB-80B8-17785FFB10B5}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,35 +540,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -675,35 +675,35 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -752,10 +752,10 @@
         <v>0.82434230729859703</v>
       </c>
       <c r="D16" s="1">
-        <v>0.85152685152685104</v>
+        <v>0.85271147771147704</v>
       </c>
       <c r="E16" s="1">
-        <v>0.84102774081277498</v>
+        <v>0.84051591769884304</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -810,35 +810,35 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -880,10 +880,18 @@
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3.12469005584716E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.55668258666992E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1.56576633453369E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -929,35 +937,35 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="7"/>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -999,10 +1007,18 @@
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="B38" s="1">
+        <v>1.6232271194457999</v>
+      </c>
+      <c r="C38" s="1">
+        <v>7.5819144248962402</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.3751738071441599</v>
+      </c>
+      <c r="E38" s="1">
+        <v>6.9267990589141801</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -1049,16 +1065,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
